--- a/model/CNN_200iter_loss_with_lr_scheduler.xlsx
+++ b/model/CNN_200iter_loss_with_lr_scheduler.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinze\Documents\CaptainCandy\classification_cifar10\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZJUSO\Documents\CaptainCandy\classification_cifar10\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{09AD0BAB-4998-4C91-8319-6EBBBCB1EAE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B71867E-94BD-4CE9-B1DB-41C8951CA332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN_200iter_loss_with_lr_schedu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4724,6 +4732,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="495537312"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8834,6 +8843,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="724974752"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -12502,22 +12512,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.2109375" customWidth="1"/>
+    <col min="3" max="3" width="18.78515625" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12540,7 +12550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12563,7 +12573,7 @@
         <v>0.70489999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12586,7 +12596,7 @@
         <v>0.72550000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12609,7 +12619,7 @@
         <v>0.73050000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12632,7 +12642,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12655,7 +12665,7 @@
         <v>0.75180000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12678,7 +12688,7 @@
         <v>0.75819999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12701,7 +12711,7 @@
         <v>0.76459999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12724,7 +12734,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12747,7 +12757,7 @@
         <v>0.77090000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12770,7 +12780,7 @@
         <v>0.78159999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12793,7 +12803,7 @@
         <v>0.77249999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12816,7 +12826,7 @@
         <v>0.78049999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12839,7 +12849,7 @@
         <v>0.78190000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12862,7 +12872,7 @@
         <v>0.77969999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12885,7 +12895,7 @@
         <v>0.78390000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12908,7 +12918,7 @@
         <v>0.78449999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12931,7 +12941,7 @@
         <v>0.7853</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12954,7 +12964,7 @@
         <v>0.78759999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12977,7 +12987,7 @@
         <v>0.79290000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13000,7 +13010,7 @@
         <v>0.77880000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13023,7 +13033,7 @@
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13046,7 +13056,7 @@
         <v>0.78420000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13069,7 +13079,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13092,7 +13102,7 @@
         <v>0.79079999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13115,7 +13125,7 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13138,7 +13148,7 @@
         <v>0.78979999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13161,7 +13171,7 @@
         <v>0.78849999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13184,7 +13194,7 @@
         <v>0.78790000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13207,7 +13217,7 @@
         <v>0.78769999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13230,7 +13240,7 @@
         <v>0.79459999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13253,7 +13263,7 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13276,7 +13286,7 @@
         <v>0.79659999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13299,7 +13309,7 @@
         <v>0.79259999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13322,7 +13332,7 @@
         <v>0.79220000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13345,7 +13355,7 @@
         <v>0.79349999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13368,7 +13378,7 @@
         <v>0.78690000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13391,7 +13401,7 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13414,7 +13424,7 @@
         <v>0.78990000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13437,7 +13447,7 @@
         <v>0.78720000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13460,7 +13470,7 @@
         <v>0.79410000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13483,7 +13493,7 @@
         <v>0.78639999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13506,7 +13516,7 @@
         <v>0.78690000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13529,7 +13539,7 @@
         <v>0.79279999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13552,7 +13562,7 @@
         <v>0.79669999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13575,7 +13585,7 @@
         <v>0.78659999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13598,7 +13608,7 @@
         <v>0.79369999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13621,7 +13631,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13644,7 +13654,7 @@
         <v>0.79810000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13667,7 +13677,7 @@
         <v>0.78779999999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13690,7 +13700,7 @@
         <v>0.79090000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13713,7 +13723,7 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13736,7 +13746,7 @@
         <v>0.79630000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13759,7 +13769,7 @@
         <v>0.79469999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13782,7 +13792,7 @@
         <v>0.7954</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13805,7 +13815,7 @@
         <v>0.79849999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13828,7 +13838,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13851,7 +13861,7 @@
         <v>0.7883</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13874,7 +13884,7 @@
         <v>0.79590000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13897,7 +13907,7 @@
         <v>0.79549999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13920,7 +13930,7 @@
         <v>0.79469999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13943,7 +13953,7 @@
         <v>0.78680000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13966,7 +13976,7 @@
         <v>0.79630000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13989,7 +13999,7 @@
         <v>0.79459999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -14012,7 +14022,7 @@
         <v>0.79059999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14035,7 +14045,7 @@
         <v>0.79630000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14058,7 +14068,7 @@
         <v>0.79569999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14081,7 +14091,7 @@
         <v>0.79490000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14104,7 +14114,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14127,7 +14137,7 @@
         <v>0.79849999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14150,7 +14160,7 @@
         <v>0.79969999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14173,7 +14183,7 @@
         <v>0.79510000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14196,7 +14206,7 @@
         <v>0.79910000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14219,7 +14229,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14242,7 +14252,7 @@
         <v>0.79649999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14265,7 +14275,7 @@
         <v>0.79349999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14288,7 +14298,7 @@
         <v>0.79779999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14311,7 +14321,7 @@
         <v>0.79469999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14334,7 +14344,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14357,7 +14367,7 @@
         <v>0.79069999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14380,7 +14390,7 @@
         <v>0.80030000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14403,7 +14413,7 @@
         <v>0.79879999999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14426,7 +14436,7 @@
         <v>0.80689999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14449,7 +14459,7 @@
         <v>0.8095</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14472,7 +14482,7 @@
         <v>0.81089999999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14495,7 +14505,7 @@
         <v>0.81310000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14518,7 +14528,7 @@
         <v>0.81130000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14541,7 +14551,7 @@
         <v>0.81259999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14564,7 +14574,7 @@
         <v>0.81130000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14587,7 +14597,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14610,7 +14620,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -14633,7 +14643,7 @@
         <v>0.81179999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -14656,7 +14666,7 @@
         <v>0.81410000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -14679,7 +14689,7 @@
         <v>0.81440000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -14702,7 +14712,7 @@
         <v>0.81330000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14725,7 +14735,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -14748,7 +14758,7 @@
         <v>0.81530000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -14771,7 +14781,7 @@
         <v>0.81510000000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14794,7 +14804,7 @@
         <v>0.81359999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14817,7 +14827,7 @@
         <v>0.81189999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14840,7 +14850,7 @@
         <v>0.81589999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14863,7 +14873,7 @@
         <v>0.81479999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14886,7 +14896,7 @@
         <v>0.81530000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14909,7 +14919,7 @@
         <v>0.81789999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14932,7 +14942,7 @@
         <v>0.81610000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -14955,7 +14965,7 @@
         <v>0.81259999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -14978,7 +14988,7 @@
         <v>0.81740000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15001,7 +15011,7 @@
         <v>0.8165</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15024,7 +15034,7 @@
         <v>0.81610000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15047,7 +15057,7 @@
         <v>0.81640000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -15070,7 +15080,7 @@
         <v>0.81630000000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -15093,7 +15103,7 @@
         <v>0.81569999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -15116,7 +15126,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -15139,7 +15149,7 @@
         <v>0.8165</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -15162,7 +15172,7 @@
         <v>0.8145</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15185,7 +15195,7 @@
         <v>0.81689999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -15208,7 +15218,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -15231,7 +15241,7 @@
         <v>0.81569999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -15254,7 +15264,7 @@
         <v>0.81730000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -15277,7 +15287,7 @@
         <v>0.81659999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -15300,7 +15310,7 @@
         <v>0.81630000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -15323,7 +15333,7 @@
         <v>0.81689999999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -15346,7 +15356,7 @@
         <v>0.81720000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -15369,7 +15379,7 @@
         <v>0.81710000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -15392,7 +15402,7 @@
         <v>0.81620000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -15415,7 +15425,7 @@
         <v>0.8175</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -15438,7 +15448,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -15461,7 +15471,7 @@
         <v>0.81740000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -15484,7 +15494,7 @@
         <v>0.81730000000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -15507,7 +15517,7 @@
         <v>0.81769999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -15530,7 +15540,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -15553,7 +15563,7 @@
         <v>0.81759999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -15576,7 +15586,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -15599,7 +15609,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15622,7 +15632,7 @@
         <v>0.81779999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15645,7 +15655,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15668,7 +15678,7 @@
         <v>0.81759999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15691,7 +15701,7 @@
         <v>0.81740000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15714,7 +15724,7 @@
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15737,7 +15747,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15760,7 +15770,7 @@
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15783,7 +15793,7 @@
         <v>0.81879999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15806,7 +15816,7 @@
         <v>0.81840000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15829,7 +15839,7 @@
         <v>0.81810000000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15852,7 +15862,7 @@
         <v>0.81859999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15875,7 +15885,7 @@
         <v>0.81810000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15898,7 +15908,7 @@
         <v>0.81930000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15921,7 +15931,7 @@
         <v>0.81840000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -15944,7 +15954,7 @@
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -15967,7 +15977,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -15990,7 +16000,7 @@
         <v>0.81769999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16013,7 +16023,7 @@
         <v>0.81779999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16036,7 +16046,7 @@
         <v>0.81810000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -16059,7 +16069,7 @@
         <v>0.81810000000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -16082,7 +16092,7 @@
         <v>0.81840000000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16105,7 +16115,7 @@
         <v>0.81769999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16128,7 +16138,7 @@
         <v>0.81879999999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16151,7 +16161,7 @@
         <v>0.81910000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16174,7 +16184,7 @@
         <v>0.81810000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -16197,7 +16207,7 @@
         <v>0.81869999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -16220,7 +16230,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -16243,7 +16253,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -16266,7 +16276,7 @@
         <v>0.81769999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -16289,7 +16299,7 @@
         <v>0.81859999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -16312,7 +16322,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -16335,7 +16345,7 @@
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -16358,7 +16368,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -16381,7 +16391,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -16404,7 +16414,7 @@
         <v>0.81789999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -16427,7 +16437,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -16450,7 +16460,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -16473,7 +16483,7 @@
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -16496,7 +16506,7 @@
         <v>0.81859999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -16519,7 +16529,7 @@
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -16542,7 +16552,7 @@
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -16565,7 +16575,7 @@
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -16588,7 +16598,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -16611,7 +16621,7 @@
         <v>0.81859999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -16634,7 +16644,7 @@
         <v>0.81840000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -16657,7 +16667,7 @@
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -16680,7 +16690,7 @@
         <v>0.81810000000000005</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -16703,7 +16713,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -16726,7 +16736,7 @@
         <v>0.81840000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -16749,7 +16759,7 @@
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -16772,7 +16782,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -16795,7 +16805,7 @@
         <v>0.81840000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -16818,7 +16828,7 @@
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -16841,7 +16851,7 @@
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -16864,7 +16874,7 @@
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -16887,7 +16897,7 @@
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -16910,7 +16920,7 @@
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -16933,7 +16943,7 @@
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -16956,7 +16966,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -16979,7 +16989,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -17002,7 +17012,7 @@
         <v>0.81869999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -17025,7 +17035,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -17048,7 +17058,7 @@
         <v>0.81840000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -17071,7 +17081,7 @@
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -17094,7 +17104,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -17117,7 +17127,7 @@
         <v>0.81879999999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -17140,7 +17150,7 @@
         <v>0.81859999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C202">
         <f>SUM(C2:C201)</f>
         <v>2148</v>
@@ -17149,6 +17159,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>